--- a/Eddington/SR EDDINGTON-260/BLE_GAP_DISC_0006.xlsx
+++ b/Eddington/SR EDDINGTON-260/BLE_GAP_DISC_0006.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Step Name</t>
   </si>
@@ -189,22 +189,6 @@
   </si>
   <si>
     <t>Function returns True.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Repeat step 3 to check discovery procedure with others duration argument
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>duration = [2, 5, 10, 30, 60, 120]</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Function returns a list of ScanResult objects.
@@ -214,6 +198,51 @@
 - The discovery procedure should be terminated within 1s </t>
   </si>
   <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start scanning BT devices in the area with Raw advertising data response and &lt;scan_timeout&gt;=1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>duration = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&gt;&gt;&gt; dut.ble_scan(duration, BleInterface.SCAN_RESULT_FORMAT_RAW)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Start a timer to calculate the scanning procedure's duration
 </t>
@@ -225,47 +254,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&gt;&gt;start_time=time.clock()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Start scanning BT devices in the area with Raw advertising data response and &lt;scan_timeout&gt;=1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>duration = 1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;&gt;&gt;start_time=time.clock()
-&gt;&gt;&gt; dut.ble_scan(duration, BleInterface.SCAN_RESULT_FORMAT_RAW)
-&gt;&gt;&gt;start_time=time.clock()</t>
+      <t>&gt;&gt;&gt;time.clock()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Get the time right after completing the discovery procedure
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&gt;&gt;end_time=time.clock()</t>
+    </r>
+  </si>
+  <si>
+    <t>Function returns wall-clock seconds elapsed since the first call to this function, as a floating point number.
+- This will be approximate to the duration argument in step 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Repeat step 2-4 to check discovery procedure with others duration argument
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>duration = [2, 5, 10, 30, 60, 120]</t>
     </r>
   </si>
 </sst>
@@ -681,7 +705,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,40 +749,46 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
